--- a/ch1_introduction.figures/groucho_interactors.xlsx
+++ b/ch1_introduction.figures/groucho_interactors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Interacting Protein</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Goosecoid</t>
   </si>
   <si>
-    <t>RTK signaling; embryonic terminal gene expression</t>
-  </si>
-  <si>
     <t>Embryonic terminal gene expression</t>
   </si>
   <si>
@@ -95,17 +92,123 @@
     <t>Segmentation/ Anterior-posterior patterning</t>
   </si>
   <si>
-    <t>{Jimenez, 1999 #3092}</t>
+    <t>{Jimenez,</t>
+  </si>
+  <si>
+    <t>#3092}</t>
+  </si>
+  <si>
+    <t>#3093}</t>
+  </si>
+  <si>
+    <t>{Goldstein,</t>
+  </si>
+  <si>
+    <t>#3094}</t>
+  </si>
+  <si>
+    <t>{Paroush,</t>
+  </si>
+  <si>
+    <t>#3090}</t>
+  </si>
+  <si>
+    <t>{Aronson,</t>
+  </si>
+  <si>
+    <t>#3095}</t>
+  </si>
+  <si>
+    <t>{Kobayashi,</t>
+  </si>
+  <si>
+    <t>#3076}</t>
+  </si>
+  <si>
+    <t>#3096}</t>
+  </si>
+  <si>
+    <t>{Andrioli,</t>
+  </si>
+  <si>
+    <t>#3097}</t>
+  </si>
+  <si>
+    <t>#3075}</t>
+  </si>
+  <si>
+    <t>{Payankaulam,</t>
+  </si>
+  <si>
+    <t>#2955}</t>
+  </si>
+  <si>
+    <t>{Dubnicoff,</t>
+  </si>
+  <si>
+    <t>#2366}</t>
+  </si>
+  <si>
+    <t>{Zhang,</t>
+  </si>
+  <si>
+    <t>#3099}</t>
+  </si>
+  <si>
+    <t>#3101}</t>
+  </si>
+  <si>
+    <t>{Von Ohlen,</t>
+  </si>
+  <si>
+    <t>{Cowden,</t>
+  </si>
+  <si>
+    <t>#3102}</t>
+  </si>
+  <si>
+    <t>{Barolo,</t>
+  </si>
+  <si>
+    <t>#3072}</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>CitRef</t>
+  </si>
+  <si>
+    <t>Embryonic terminal gene expression; RTK signaling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,13 +231,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,6 +252,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F16" totalsRowShown="0">
+  <autoFilter ref="A1:F16"/>
+  <sortState ref="A2:F16">
+    <sortCondition ref="B2:B16"/>
+    <sortCondition ref="E2:E16"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Interacting Protein"/>
+    <tableColumn id="2" name="Biological Role"/>
+    <tableColumn id="3" name="Citation">
+      <calculatedColumnFormula>CONCATENATE(D2," ",E2," ",F2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Year"/>
+    <tableColumn id="6" name="CitRef"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,20 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,128 +561,335 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(D2," ",E2," ",F2)</f>
+        <v>{Dubnicoff, 1997 #2366}</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>1997</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="str">
+        <f>CONCATENATE(D3," ",E3," ",F3)</f>
+        <v>{Zhang, 2001 #3099}</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(D4," ",E4," ",F4)</f>
+        <v>{Cowden, 2003 #3102}</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>2003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(D5," ",E5," ",F5)</f>
+        <v>{Von Ohlen, 2007 #3101}</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>2007</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(D6," ",E6," ",F6)</f>
+        <v>{Goldstein, 1999 #3094}</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(D7," ",E7," ",F7)</f>
+        <v>{Jimenez, 2000 #3093}</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(D8," ",E8," ",F8)</f>
+        <v>{Barolo, 2002 #3072}</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>2002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(D9," ",E9," ",F9)</f>
+        <v>{Paroush, 1994 #3090}</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1994</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(D10," ",E10," ",F10)</f>
+        <v>{Aronson, 1997 #3095}</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>1997</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(D11," ",E11," ",F11)</f>
+        <v>{Jimenez, 1997 #3075}</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E11">
+        <v>1997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(D12," ",E12," ",F12)</f>
+        <v>{Jimenez, 1999 #3092}</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E12">
+        <v>1999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(D13," ",E13," ",F13)</f>
+        <v>{Kobayashi, 2001 #3076}</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>2001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(D14," ",E14," ",F14)</f>
+        <v>{Andrioli, 2004 #3097}</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>2004</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
+        <f>CONCATENATE(D15," ",E15," ",F15)</f>
+        <v>{Goldstein, 2005 #3096}</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2005</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(D16," ",E16," ",F16)</f>
+        <v>{Payankaulam, 2009 #2955}</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>2009</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>